--- a/计划/一七计划/第一个一周计划（12_24——12_30）.xlsx
+++ b/计划/一七计划/第一个一周计划（12_24——12_30）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>星期一</t>
   </si>
@@ -96,6 +96,51 @@
     <t>洗漱上床</t>
   </si>
   <si>
+    <t>第一节没课，睡到九点了</t>
+  </si>
+  <si>
+    <t>看了会概率论然后去上课，工图基本上没咋听，不过老师给了几份答案。</t>
+  </si>
+  <si>
+    <t>上课</t>
+  </si>
+  <si>
+    <t>打了两节课游戏，然后概率论看到方差那，明天要做做题。</t>
+  </si>
+  <si>
+    <t>热干面，菜夹馍，5.5+2.5</t>
+  </si>
+  <si>
+    <t>打团磨磨唧唧的，C掉了。升级了4件，还有最后一件没升级。</t>
+  </si>
+  <si>
+    <t>上机</t>
+  </si>
+  <si>
+    <t>看概率论，没看进去多少，头有点疼。</t>
+  </si>
+  <si>
+    <t>睡了一会，感觉好多了</t>
+  </si>
+  <si>
+    <t>约老袁宋斌吃饭</t>
+  </si>
+  <si>
+    <t>吃饭，冒菜，48r，宋斌掏钱，然后买了瓶奶，买了两瓶果啤，总共9.5r</t>
+  </si>
+  <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>拖宿舍</t>
+  </si>
+  <si>
+    <t>我也不知道我干啥了</t>
+  </si>
+  <si>
+    <t>总结，写日记</t>
+  </si>
+  <si>
     <t>体育课</t>
   </si>
   <si>
@@ -110,8 +155,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -141,28 +186,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -170,7 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,6 +209,60 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,30 +291,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -247,14 +300,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +322,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,13 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,49 +436,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,31 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,49 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,21 +527,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,16 +556,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +586,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,10 +636,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,16 +648,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,112 +669,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,14 +800,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,7 +1131,7 @@
   <dimension ref="A1:X218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:O9"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1094,25 +1139,25 @@
     <row r="1" spans="1:22">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1626,10 +1671,10 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="9">
+      <c r="A15" s="2">
         <v>0.75</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="1"/>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3069,8 +3114,6 @@
     <hyperlink ref="P1" location="星期五!A1" display="星期五"/>
     <hyperlink ref="S1" location="星期六!A1" display="星期六"/>
     <hyperlink ref="V1" location="星期天!A1" display="星期日"/>
-    <hyperlink ref="D1" location="星期一!A1" display="星期一"/>
-    <hyperlink ref="G1" location="星期二!A1" display="星期二"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3082,8 +3125,8 @@
   <sheetPr/>
   <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="N207" sqref="N207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3107,7 +3150,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>0.253472222222222</v>
       </c>
@@ -3116,8 +3159,11 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>0.256944444444444</v>
       </c>
@@ -3126,8 +3172,11 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>0.260416666666667</v>
       </c>
@@ -3136,8 +3185,11 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>0.263888888888889</v>
       </c>
@@ -3146,8 +3198,11 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>0.267361111111111</v>
       </c>
@@ -3156,8 +3211,11 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>0.270833333333333</v>
       </c>
@@ -3166,8 +3224,11 @@
       <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>0.274305555555556</v>
       </c>
@@ -3176,8 +3237,11 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>0.277777777777778</v>
       </c>
@@ -3186,8 +3250,11 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>0.28125</v>
       </c>
@@ -3196,8 +3263,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>0.284722222222222</v>
       </c>
@@ -3206,8 +3276,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>0.288194444444444</v>
       </c>
@@ -3216,8 +3289,11 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>0.291666666666667</v>
       </c>
@@ -3228,8 +3304,11 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>0.295138888888889</v>
       </c>
@@ -3238,8 +3317,11 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>0.298611111111111</v>
       </c>
@@ -3248,8 +3330,11 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>0.302083333333333</v>
       </c>
@@ -3258,8 +3343,11 @@
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>0.305555555555556</v>
       </c>
@@ -3268,8 +3356,11 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>0.309027777777778</v>
       </c>
@@ -3278,6 +3369,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
@@ -3290,7 +3384,9 @@
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="I20" s="3"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
@@ -3303,7 +3399,9 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="I21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
@@ -3316,7 +3414,9 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="I22" s="3"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
@@ -3329,7 +3429,9 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="I23" s="3"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
@@ -3342,7 +3444,9 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="I24" s="3"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
@@ -3355,11 +3459,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="I25" s="3"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>0.333333333333333</v>
       </c>
@@ -3368,8 +3474,11 @@
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>0.336805555555556</v>
       </c>
@@ -3378,8 +3487,11 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>0.340277777777778</v>
       </c>
@@ -3388,8 +3500,11 @@
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>0.34375</v>
       </c>
@@ -3398,8 +3513,11 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>0.347222222222222</v>
       </c>
@@ -3408,8 +3526,11 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>0.350694444444444</v>
       </c>
@@ -3418,8 +3539,11 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>0.354166666666667</v>
       </c>
@@ -3428,8 +3552,11 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>0.357638888888889</v>
       </c>
@@ -3438,8 +3565,11 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>0.361111111111111</v>
       </c>
@@ -3448,8 +3578,11 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>0.364583333333333</v>
       </c>
@@ -3458,8 +3591,11 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>0.368055555555556</v>
       </c>
@@ -3468,8 +3604,11 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>0.371527777777778</v>
       </c>
@@ -3478,8 +3617,11 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>0.375</v>
       </c>
@@ -3488,8 +3630,13 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>0.378472222222222</v>
       </c>
@@ -3498,8 +3645,13 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>0.381944444444444</v>
       </c>
@@ -3508,8 +3660,11 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>0.385416666666667</v>
       </c>
@@ -3518,8 +3673,11 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>0.388888888888889</v>
       </c>
@@ -3528,8 +3686,11 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>0.392361111111111</v>
       </c>
@@ -3538,8 +3699,11 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>0.395833333333333</v>
       </c>
@@ -3548,8 +3712,11 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>0.399305555555556</v>
       </c>
@@ -3558,8 +3725,11 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>0.402777777777778</v>
       </c>
@@ -3568,8 +3738,11 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>0.40625</v>
       </c>
@@ -3578,6 +3751,9 @@
       <c r="D47" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2">
@@ -3588,7 +3764,9 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
@@ -3601,11 +3779,13 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="I49" s="3"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>0.416666666666667</v>
       </c>
@@ -3614,8 +3794,11 @@
       <c r="D50" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>0.420138888888889</v>
       </c>
@@ -3624,8 +3807,11 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>0.423611111111111</v>
       </c>
@@ -3634,8 +3820,11 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>0.427083333333333</v>
       </c>
@@ -3644,8 +3833,13 @@
       <c r="D53" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>0.430555555555556</v>
       </c>
@@ -3654,8 +3848,13 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>0.434027777777778</v>
       </c>
@@ -3664,8 +3863,11 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>0.4375</v>
       </c>
@@ -3674,8 +3876,11 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>0.440972222222222</v>
       </c>
@@ -3684,8 +3889,11 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>0.444444444444444</v>
       </c>
@@ -3694,8 +3902,11 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>0.447916666666667</v>
       </c>
@@ -3704,8 +3915,11 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>0.451388888888889</v>
       </c>
@@ -3714,8 +3928,11 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>0.454861111111111</v>
       </c>
@@ -3724,8 +3941,11 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>0.458333333333333</v>
       </c>
@@ -3734,8 +3954,11 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>0.461805555555556</v>
       </c>
@@ -3744,8 +3967,11 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>0.465277777777778</v>
       </c>
@@ -3754,8 +3980,11 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>0.46875</v>
       </c>
@@ -3764,8 +3993,11 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>0.472222222222222</v>
       </c>
@@ -3774,8 +4006,11 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>0.475694444444444</v>
       </c>
@@ -3784,8 +4019,11 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>0.479166666666667</v>
       </c>
@@ -3794,8 +4032,11 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>0.482638888888889</v>
       </c>
@@ -3804,8 +4045,11 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>0.486111111111111</v>
       </c>
@@ -3814,8 +4058,11 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>0.489583333333333</v>
       </c>
@@ -3824,8 +4071,11 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>0.493055555555556</v>
       </c>
@@ -3834,8 +4084,11 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>0.496527777777778</v>
       </c>
@@ -3844,8 +4097,11 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>0.5</v>
       </c>
@@ -3854,8 +4110,11 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>0.503472222222222</v>
       </c>
@@ -3864,8 +4123,11 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>0.506944444444444</v>
       </c>
@@ -3874,8 +4136,11 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>0.510416666666667</v>
       </c>
@@ -3884,8 +4149,11 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>0.513888888888889</v>
       </c>
@@ -3894,8 +4162,11 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>0.517361111111111</v>
       </c>
@@ -3904,8 +4175,11 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>0.520833333333333</v>
       </c>
@@ -3914,6 +4188,11 @@
       <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2">
@@ -3924,8 +4203,11 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="G81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
       <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10">
@@ -3937,8 +4219,9 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10">
@@ -3950,11 +4233,12 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>0.534722222222222</v>
       </c>
@@ -3963,8 +4247,11 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>0.538194444444444</v>
       </c>
@@ -3973,8 +4260,11 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>0.541666666666667</v>
       </c>
@@ -3983,8 +4273,13 @@
       <c r="D86" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>0.545138888888889</v>
       </c>
@@ -3993,8 +4288,13 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>0.548611111111111</v>
       </c>
@@ -4003,8 +4303,11 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>0.552083333333333</v>
       </c>
@@ -4013,8 +4316,11 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>0.555555555555556</v>
       </c>
@@ -4023,8 +4329,11 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>0.559027777777778</v>
       </c>
@@ -4033,8 +4342,11 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>0.5625</v>
       </c>
@@ -4043,8 +4355,11 @@
       <c r="D92" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>0.565972222222222</v>
       </c>
@@ -4053,8 +4368,11 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>0.569444444444444</v>
       </c>
@@ -4063,8 +4381,11 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>0.572916666666667</v>
       </c>
@@ -4073,8 +4394,11 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>0.576388888888889</v>
       </c>
@@ -4083,8 +4407,11 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>0.579861111111111</v>
       </c>
@@ -4093,8 +4420,11 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>0.583333333333333</v>
       </c>
@@ -4103,8 +4433,13 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>0.586805555555556</v>
       </c>
@@ -4113,8 +4448,11 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>0.590277777777778</v>
       </c>
@@ -4123,8 +4461,11 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>0.59375</v>
       </c>
@@ -4133,8 +4474,11 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>0.597222222222222</v>
       </c>
@@ -4143,8 +4487,11 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>0.600694444444444</v>
       </c>
@@ -4153,8 +4500,11 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>0.604166666666667</v>
       </c>
@@ -4163,8 +4513,13 @@
       <c r="D104" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>0.607638888888889</v>
       </c>
@@ -4173,8 +4528,13 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>0.611111111111111</v>
       </c>
@@ -4183,8 +4543,11 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>0.614583333333333</v>
       </c>
@@ -4193,8 +4556,11 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>0.618055555555556</v>
       </c>
@@ -4203,6 +4569,9 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2">
@@ -4213,8 +4582,9 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10">
@@ -4226,11 +4596,12 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
         <v>0.628472222222222</v>
       </c>
@@ -4239,8 +4610,11 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
         <v>0.631944444444444</v>
       </c>
@@ -4249,8 +4623,11 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="2">
         <v>0.635416666666667</v>
       </c>
@@ -4259,8 +4636,11 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="2">
         <v>0.638888888888889</v>
       </c>
@@ -4269,8 +4649,11 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2">
         <v>0.642361111111111</v>
       </c>
@@ -4279,8 +4662,11 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2">
         <v>0.645833333333333</v>
       </c>
@@ -4289,8 +4675,11 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>0.649305555555556</v>
       </c>
@@ -4299,8 +4688,11 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="6"/>
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>0.652777777777778</v>
       </c>
@@ -4309,8 +4701,11 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>0.65625</v>
       </c>
@@ -4319,8 +4714,11 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>0.659722222222222</v>
       </c>
@@ -4329,8 +4727,11 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="2">
         <v>0.663194444444444</v>
       </c>
@@ -4339,8 +4740,11 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" s="6"/>
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="2">
         <v>0.666666666666667</v>
       </c>
@@ -4349,8 +4753,11 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="2">
         <v>0.670138888888889</v>
       </c>
@@ -4359,8 +4766,11 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="6"/>
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
         <v>0.673611111111111</v>
       </c>
@@ -4369,8 +4779,11 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" s="6"/>
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
         <v>0.677083333333333</v>
       </c>
@@ -4379,8 +4792,11 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
         <v>0.680555555555556</v>
       </c>
@@ -4389,8 +4805,13 @@
       <c r="D126" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="2">
         <v>0.684027777777778</v>
       </c>
@@ -4399,8 +4820,13 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="2">
         <v>0.6875</v>
       </c>
@@ -4409,8 +4835,11 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" s="6"/>
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="2">
         <v>0.690972222222222</v>
       </c>
@@ -4419,8 +4848,11 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="2">
         <v>0.694444444444444</v>
       </c>
@@ -4429,8 +4861,11 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="2">
         <v>0.697916666666667</v>
       </c>
@@ -4439,8 +4874,11 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="2">
         <v>0.701388888888889</v>
       </c>
@@ -4449,8 +4887,11 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="2">
         <v>0.704861111111111</v>
       </c>
@@ -4459,8 +4900,11 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="2">
         <v>0.708333333333333</v>
       </c>
@@ -4469,8 +4913,11 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2">
         <v>0.711805555555556</v>
       </c>
@@ -4479,8 +4926,11 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="2">
         <v>0.715277777777778</v>
       </c>
@@ -4489,8 +4939,11 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="2">
         <v>0.71875</v>
       </c>
@@ -4499,8 +4952,11 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="2">
         <v>0.722222222222222</v>
       </c>
@@ -4509,8 +4965,11 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="2">
         <v>0.725694444444444</v>
       </c>
@@ -4519,8 +4978,11 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="2">
         <v>0.729166666666667</v>
       </c>
@@ -4529,8 +4991,11 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="2">
         <v>0.732638888888889</v>
       </c>
@@ -4539,8 +5004,11 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="2">
         <v>0.736111111111111</v>
       </c>
@@ -4549,8 +5017,11 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="2">
         <v>0.739583333333333</v>
       </c>
@@ -4559,8 +5030,11 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="2">
         <v>0.743055555555556</v>
       </c>
@@ -4569,8 +5043,13 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <v>0.746527777777778</v>
       </c>
@@ -4579,8 +5058,13 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="G145" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H145" s="7"/>
+      <c r="I145" s="7"/>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <v>0.75</v>
       </c>
@@ -4589,8 +5073,11 @@
       <c r="D146" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="7"/>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="2">
         <v>0.753472222222222</v>
       </c>
@@ -4599,8 +5086,11 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <v>0.756944444444444</v>
       </c>
@@ -4609,8 +5099,11 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="7"/>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="2">
         <v>0.760416666666667</v>
       </c>
@@ -4619,8 +5112,11 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="7"/>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="2">
         <v>0.763888888888889</v>
       </c>
@@ -4629,8 +5125,11 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="7"/>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="2">
         <v>0.767361111111111</v>
       </c>
@@ -4639,8 +5138,11 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="7"/>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="2">
         <v>0.770833333333333</v>
       </c>
@@ -4649,8 +5151,11 @@
       <c r="D152" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="2">
         <v>0.774305555555556</v>
       </c>
@@ -4659,8 +5164,11 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="2">
         <v>0.777777777777778</v>
       </c>
@@ -4669,8 +5177,11 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="7"/>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="2">
         <v>0.78125</v>
       </c>
@@ -4679,8 +5190,11 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="7"/>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="2">
         <v>0.784722222222222</v>
       </c>
@@ -4689,8 +5203,11 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156" s="7"/>
+      <c r="H156" s="7"/>
+      <c r="I156" s="7"/>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="2">
         <v>0.788194444444444</v>
       </c>
@@ -4699,8 +5216,11 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="G157" s="7"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="2">
         <v>0.791666666666667</v>
       </c>
@@ -4709,8 +5229,11 @@
       <c r="D158" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="7"/>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="2">
         <v>0.795138888888889</v>
       </c>
@@ -4719,8 +5242,11 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="7"/>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="2">
         <v>0.798611111111111</v>
       </c>
@@ -4729,8 +5255,11 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="7"/>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
         <v>0.802083333333333</v>
       </c>
@@ -4739,8 +5268,11 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="7"/>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="2">
         <v>0.805555555555556</v>
       </c>
@@ -4749,8 +5281,11 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="7"/>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="2">
         <v>0.809027777777778</v>
       </c>
@@ -4759,8 +5294,11 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="7"/>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="2">
         <v>0.8125</v>
       </c>
@@ -4769,8 +5307,11 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="7"/>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="2">
         <v>0.815972222222222</v>
       </c>
@@ -4779,8 +5320,13 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H165" s="6"/>
+      <c r="I165" s="6"/>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="2">
         <v>0.819444444444444</v>
       </c>
@@ -4789,8 +5335,11 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166" s="6"/>
+      <c r="H166" s="6"/>
+      <c r="I166" s="6"/>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>0.822916666666667</v>
       </c>
@@ -4799,8 +5348,11 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="2">
         <v>0.826388888888889</v>
       </c>
@@ -4809,8 +5361,11 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="2">
         <v>0.829861111111111</v>
       </c>
@@ -4819,8 +5374,11 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="2">
         <v>0.833333333333333</v>
       </c>
@@ -4829,8 +5387,11 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="2">
         <v>0.836805555555556</v>
       </c>
@@ -4839,8 +5400,11 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="2">
         <v>0.840277777777778</v>
       </c>
@@ -4849,8 +5413,11 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+      <c r="I172" s="6"/>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="2">
         <v>0.84375</v>
       </c>
@@ -4859,8 +5426,11 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="2">
         <v>0.847222222222222</v>
       </c>
@@ -4869,8 +5439,11 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="2">
         <v>0.850694444444444</v>
       </c>
@@ -4879,8 +5452,11 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="2">
         <v>0.854166666666667</v>
       </c>
@@ -4889,8 +5465,11 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="2">
         <v>0.857638888888889</v>
       </c>
@@ -4899,8 +5478,11 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="2">
         <v>0.861111111111111</v>
       </c>
@@ -4909,8 +5491,11 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="2">
         <v>0.864583333333333</v>
       </c>
@@ -4919,8 +5504,11 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="2">
         <v>0.868055555555556</v>
       </c>
@@ -4929,8 +5517,11 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="2">
         <v>0.871527777777778</v>
       </c>
@@ -4939,8 +5530,11 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="2">
         <v>0.875</v>
       </c>
@@ -4949,8 +5543,11 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="2">
         <v>0.878472222222222</v>
       </c>
@@ -4959,8 +5556,11 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="2">
         <v>0.881944444444444</v>
       </c>
@@ -4969,8 +5569,11 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="2">
         <v>0.885416666666667</v>
       </c>
@@ -4979,8 +5582,11 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="2">
         <v>0.888888888888889</v>
       </c>
@@ -4989,8 +5595,11 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="2">
         <v>0.892361111111111</v>
       </c>
@@ -4999,8 +5608,11 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="2">
         <v>0.895833333333333</v>
       </c>
@@ -5009,8 +5621,11 @@
       <c r="D188" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="6"/>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="2">
         <v>0.899305555555556</v>
       </c>
@@ -5019,8 +5634,13 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H189" s="6"/>
+      <c r="I189" s="6"/>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="2">
         <v>0.902777777777778</v>
       </c>
@@ -5029,6 +5649,9 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="6"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2">
@@ -5039,8 +5662,9 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+      <c r="I191" s="6"/>
       <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10">
@@ -5052,8 +5676,9 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="6"/>
       <c r="J192" s="3"/>
     </row>
     <row r="193" spans="1:10">
@@ -5065,8 +5690,9 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
       <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10">
@@ -5078,8 +5704,11 @@
       <c r="D194" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
+      <c r="G194" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
       <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10">
@@ -5091,8 +5720,9 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
       <c r="J195" s="3"/>
     </row>
     <row r="196" spans="1:10">
@@ -5104,8 +5734,9 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
       <c r="J196" s="3"/>
     </row>
     <row r="197" spans="1:10">
@@ -5117,11 +5748,12 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
       <c r="J197" s="3"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:9">
       <c r="A198" s="2">
         <v>0.930555555555556</v>
       </c>
@@ -5130,8 +5762,11 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="2">
         <v>0.934027777777778</v>
       </c>
@@ -5140,8 +5775,11 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="2">
         <v>0.9375</v>
       </c>
@@ -5150,8 +5788,11 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="2">
         <v>0.940972222222222</v>
       </c>
@@ -5160,8 +5801,11 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="2">
         <v>0.944444444444444</v>
       </c>
@@ -5170,8 +5814,11 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="2">
         <v>0.947916666666667</v>
       </c>
@@ -5180,8 +5827,11 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203" s="6"/>
+      <c r="H203" s="6"/>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="2">
         <v>0.951388888888889</v>
       </c>
@@ -5190,8 +5840,11 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="2">
         <v>0.954861111111111</v>
       </c>
@@ -5200,8 +5853,11 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="G205" s="6"/>
+      <c r="H205" s="6"/>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="2">
         <v>0.958333333333333</v>
       </c>
@@ -5210,8 +5866,11 @@
       <c r="D206" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206" s="6"/>
+      <c r="H206" s="6"/>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="2">
         <v>0.961805555555556</v>
       </c>
@@ -5220,8 +5879,11 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="2">
         <v>0.965277777777778</v>
       </c>
@@ -5230,8 +5892,11 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="2">
         <v>0.96875</v>
       </c>
@@ -5240,8 +5905,11 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="2">
         <v>0.972222222222222</v>
       </c>
@@ -5250,8 +5918,11 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="2">
         <v>0.975694444444444</v>
       </c>
@@ -5260,8 +5931,11 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="2">
         <v>0.979166666666667</v>
       </c>
@@ -5272,6 +5946,11 @@
       </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
+      <c r="G212" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="2">
@@ -5334,7 +6013,7 @@
       <c r="F218" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="260">
+  <mergeCells count="284">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -5376,6 +6055,7 @@
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
@@ -5394,6 +6074,7 @@
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A53:B53"/>
     <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
@@ -5422,6 +6103,7 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="D80:F80"/>
+    <mergeCell ref="G80:I80"/>
     <mergeCell ref="A81:B81"/>
     <mergeCell ref="A82:B82"/>
     <mergeCell ref="A83:B83"/>
@@ -5429,6 +6111,7 @@
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="D86:F86"/>
+    <mergeCell ref="G86:I86"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A89:B89"/>
@@ -5442,6 +6125,7 @@
     <mergeCell ref="A96:B96"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A98:B98"/>
+    <mergeCell ref="G98:I98"/>
     <mergeCell ref="A99:B99"/>
     <mergeCell ref="A100:B100"/>
     <mergeCell ref="A101:B101"/>
@@ -5449,6 +6133,7 @@
     <mergeCell ref="A103:B103"/>
     <mergeCell ref="A104:B104"/>
     <mergeCell ref="D104:F104"/>
+    <mergeCell ref="G104:I104"/>
     <mergeCell ref="A105:B105"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A107:B107"/>
@@ -5472,6 +6157,7 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A126:B126"/>
     <mergeCell ref="D126:F126"/>
+    <mergeCell ref="G126:I126"/>
     <mergeCell ref="A127:B127"/>
     <mergeCell ref="A128:B128"/>
     <mergeCell ref="A129:B129"/>
@@ -5490,6 +6176,7 @@
     <mergeCell ref="A142:B142"/>
     <mergeCell ref="A143:B143"/>
     <mergeCell ref="A144:B144"/>
+    <mergeCell ref="G144:I144"/>
     <mergeCell ref="A145:B145"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="D146:F146"/>
@@ -5514,6 +6201,7 @@
     <mergeCell ref="A163:B163"/>
     <mergeCell ref="A164:B164"/>
     <mergeCell ref="A165:B165"/>
+    <mergeCell ref="G165:I165"/>
     <mergeCell ref="A166:B166"/>
     <mergeCell ref="A167:B167"/>
     <mergeCell ref="A168:B168"/>
@@ -5539,12 +6227,14 @@
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="D188:F188"/>
     <mergeCell ref="A189:B189"/>
+    <mergeCell ref="G189:I189"/>
     <mergeCell ref="A190:B190"/>
     <mergeCell ref="A191:B191"/>
     <mergeCell ref="A192:B192"/>
     <mergeCell ref="A193:B193"/>
     <mergeCell ref="A194:B194"/>
     <mergeCell ref="D194:F194"/>
+    <mergeCell ref="G194:I194"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="A196:B196"/>
     <mergeCell ref="A197:B197"/>
@@ -5565,6 +6255,7 @@
     <mergeCell ref="A211:B211"/>
     <mergeCell ref="A212:B212"/>
     <mergeCell ref="D212:F212"/>
+    <mergeCell ref="G212:I212"/>
     <mergeCell ref="A213:B213"/>
     <mergeCell ref="A214:B214"/>
     <mergeCell ref="A215:B215"/>
@@ -5583,10 +6274,13 @@
     <mergeCell ref="D48:F49"/>
     <mergeCell ref="D51:F52"/>
     <mergeCell ref="D54:F79"/>
+    <mergeCell ref="G54:I79"/>
     <mergeCell ref="D81:F85"/>
+    <mergeCell ref="G81:I85"/>
     <mergeCell ref="D87:F91"/>
     <mergeCell ref="D93:F103"/>
     <mergeCell ref="D105:F125"/>
+    <mergeCell ref="G105:I125"/>
     <mergeCell ref="D127:F145"/>
     <mergeCell ref="D147:F151"/>
     <mergeCell ref="D153:F157"/>
@@ -5595,6 +6289,15 @@
     <mergeCell ref="D207:F211"/>
     <mergeCell ref="D213:F218"/>
     <mergeCell ref="D189:F193"/>
+    <mergeCell ref="G3:I37"/>
+    <mergeCell ref="G39:I52"/>
+    <mergeCell ref="G87:I97"/>
+    <mergeCell ref="G99:I103"/>
+    <mergeCell ref="G127:I143"/>
+    <mergeCell ref="G145:I164"/>
+    <mergeCell ref="G166:I188"/>
+    <mergeCell ref="G190:I193"/>
+    <mergeCell ref="G195:I211"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -6768,7 +7471,7 @@
       </c>
       <c r="B126" s="1"/>
       <c r="D126" s="5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -7015,7 +7718,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="6"/>
+      <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="2">
@@ -7025,7 +7728,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="6"/>
+      <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="2">
@@ -7035,7 +7738,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="6"/>
+      <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="2">
@@ -7045,7 +7748,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="6"/>
+      <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="2">
@@ -7055,7 +7758,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="6"/>
+      <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
@@ -7074,7 +7777,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="6"/>
+      <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="2">
@@ -7084,7 +7787,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="6"/>
+      <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="2">
@@ -7094,7 +7797,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="6"/>
+      <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="2">
@@ -7104,7 +7807,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="6"/>
+      <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="2">
@@ -7114,7 +7817,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="6"/>
+      <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="2">
@@ -7124,7 +7827,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="6"/>
+      <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="2">
@@ -7134,7 +7837,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="6"/>
+      <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" s="2">
@@ -7144,7 +7847,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="2">
@@ -7154,7 +7857,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="6"/>
+      <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="2">
@@ -7164,7 +7867,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="6"/>
+      <c r="G168" s="1"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="2">
@@ -7174,7 +7877,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="6"/>
+      <c r="G169" s="1"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="2">
@@ -7184,7 +7887,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="6"/>
+      <c r="G170" s="1"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="2">
@@ -7194,7 +7897,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="6"/>
+      <c r="G171" s="1"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="2">
@@ -7204,7 +7907,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="6"/>
+      <c r="G172" s="1"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" s="2">
@@ -7214,7 +7917,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="6"/>
+      <c r="G173" s="1"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" s="2">
@@ -7224,7 +7927,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="6"/>
+      <c r="G174" s="1"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" s="2">
@@ -7234,7 +7937,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="6"/>
+      <c r="G175" s="1"/>
     </row>
     <row r="176" spans="1:7">
       <c r="A176" s="2">
@@ -7244,7 +7947,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="6"/>
+      <c r="G176" s="1"/>
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="2">
@@ -7254,7 +7957,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="6"/>
+      <c r="G177" s="1"/>
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="2">
@@ -7264,7 +7967,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="6"/>
+      <c r="G178" s="1"/>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="2">
@@ -7274,7 +7977,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="6"/>
+      <c r="G179" s="1"/>
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="2">
@@ -7284,7 +7987,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="6"/>
+      <c r="G180" s="1"/>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="2">
@@ -7294,7 +7997,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="6"/>
+      <c r="G181" s="1"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="2">
@@ -7304,7 +8007,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="6"/>
+      <c r="G182" s="1"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="2">
@@ -7314,7 +8017,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="6"/>
+      <c r="G183" s="1"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="2">
@@ -7324,7 +8027,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="6"/>
+      <c r="G184" s="1"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="2">
@@ -7334,7 +8037,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="6"/>
+      <c r="G185" s="1"/>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="2">
@@ -7344,7 +8047,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="6"/>
+      <c r="G186" s="1"/>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="2">
@@ -7354,7 +8057,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="6"/>
+      <c r="G187" s="1"/>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
@@ -7373,7 +8076,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="6"/>
+      <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="2">
@@ -7383,7 +8086,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="6"/>
+      <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7">
       <c r="A191" s="2">
@@ -7393,7 +8096,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="6"/>
+      <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7">
       <c r="A192" s="2">
@@ -7403,7 +8106,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="6"/>
+      <c r="G192" s="1"/>
     </row>
     <row r="193" spans="1:7">
       <c r="A193" s="2">
@@ -7413,7 +8116,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="6"/>
+      <c r="G193" s="1"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
@@ -7432,7 +8135,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="6"/>
+      <c r="G195" s="1"/>
     </row>
     <row r="196" spans="1:7">
       <c r="A196" s="2">
@@ -7442,7 +8145,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="6"/>
+      <c r="G196" s="1"/>
     </row>
     <row r="197" spans="1:7">
       <c r="A197" s="2">
@@ -7452,7 +8155,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="6"/>
+      <c r="G197" s="1"/>
     </row>
     <row r="198" spans="1:7">
       <c r="A198" s="2">
@@ -7462,7 +8165,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="6"/>
+      <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="2">
@@ -7472,7 +8175,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="6"/>
+      <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="2">
@@ -7482,7 +8185,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="6"/>
+      <c r="G200" s="1"/>
     </row>
     <row r="201" spans="1:7">
       <c r="A201" s="2">
@@ -7492,7 +8195,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="6"/>
+      <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="2">
@@ -7502,7 +8205,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="6"/>
+      <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7">
       <c r="A203" s="2">
@@ -7512,7 +8215,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="6"/>
+      <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="2">
@@ -7522,7 +8225,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="6"/>
+      <c r="G204" s="1"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="2">
@@ -7532,7 +8235,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="6"/>
+      <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
@@ -7551,7 +8254,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="6"/>
+      <c r="G207" s="1"/>
     </row>
     <row r="208" spans="1:7">
       <c r="A208" s="2">
@@ -7561,7 +8264,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="6"/>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="2">
@@ -7571,7 +8274,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="6"/>
+      <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7">
       <c r="A210" s="2">
@@ -7581,7 +8284,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="6"/>
+      <c r="G210" s="1"/>
     </row>
     <row r="211" spans="1:7">
       <c r="A211" s="2">
@@ -7591,7 +8294,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="6"/>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="2">
@@ -7612,7 +8315,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="6"/>
+      <c r="G213" s="1"/>
     </row>
     <row r="214" spans="1:7">
       <c r="A214" s="2">
@@ -7622,7 +8325,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="6"/>
+      <c r="G214" s="1"/>
     </row>
     <row r="215" spans="1:7">
       <c r="A215" s="2">
@@ -7632,7 +8335,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="6"/>
+      <c r="G215" s="1"/>
     </row>
     <row r="216" spans="1:7">
       <c r="A216" s="2">
@@ -7642,7 +8345,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="6"/>
+      <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:7">
       <c r="A217" s="2">
@@ -7652,7 +8355,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="6"/>
+      <c r="G217" s="1"/>
     </row>
     <row r="218" spans="1:7">
       <c r="A218" s="2">
@@ -7662,7 +8365,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="6"/>
+      <c r="G218" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="264">
@@ -8905,7 +9608,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="D104" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -11173,7 +11876,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="D104" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -13523,7 +14226,7 @@
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -15905,7 +16608,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="D104" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -17203,7 +17906,7 @@
   <sheetPr/>
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
@@ -17215,7 +17918,7 @@
     <row r="1" spans="3:6">
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -17465,7 +18168,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -18167,7 +18870,7 @@
       </c>
       <c r="B104" s="1"/>
       <c r="D104" s="4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
